--- a/Photon-Entanglement/1021.xlsx
+++ b/Photon-Entanglement/1021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuichimori/Experiment_III/Photon-Entanglement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D30E1-AB4C-FC44-9483-CDD2630B2B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF9BEF3-83B5-3744-83C2-B1C349E96978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49371181-7B6A-4E42-8473-B02AC7C4AED2}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>(0, 11.25)</t>
     <phoneticPr fontId="1"/>
@@ -152,6 +174,39 @@
     <rPh sb="0" eb="2">
       <t>カイテン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Std.Deviation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規格化</t>
+    <rPh sb="0" eb="3">
+      <t>キカクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E6+E10+E7+E11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E16+E17+E20+E21</t>
+  </si>
+  <si>
+    <t>E8+E12+E9+E13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E14+E18+E15+E19</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,19 +591,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09387EA3-29DC-BA49-ABB1-74812A170169}">
-  <dimension ref="B5:K26"/>
+  <dimension ref="B3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11">
+    <row r="3" spans="2:17">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="D5" t="s">
         <v>26</v>
       </c>
@@ -556,22 +626,40 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="B6">
         <v>0</v>
       </c>
@@ -585,27 +673,50 @@
         <v>47</v>
       </c>
       <c r="F6">
+        <v>9.1</v>
+      </c>
+      <c r="G6">
         <f>(E6-E10-E7+E11)/(E6+E10+E7+E11)</f>
         <v>-0.55598907530237984</v>
       </c>
-      <c r="G6">
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">SQRT((G8-E6)^{2}*(F6)^2+(G8-E7)^{2}*(F7)^2+(G8-E10)^2*(F10)^2+(G8-E11)^{2}*F11)/G8^2</f>
+        <v>2.5521032260301953E-2</v>
+      </c>
+      <c r="I6">
         <f>(E14-E18-E15+E19)/(E14+E18+E15+E19)</f>
         <v>0.72995305164319257</v>
       </c>
-      <c r="H6">
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">SQRT((I8-E14)^{2}*(F14)^2+(I8-E15)^{2}*(F15)^2+(I8-E18)^2*(F18)^2+(I8-E19)^{2}*F19)/I8^2</f>
+        <v>1.8908203237877237E-2</v>
+      </c>
+      <c r="K6">
         <f>(E8-E12-E9+E13)/(E8+E12+E9+E13)</f>
         <v>0.81988886759915691</v>
       </c>
-      <c r="I6">
+      <c r="L6" cm="1">
+        <f t="array" ref="L6">SQRT((K8-E8)^{2}*(F8)^2+(K8-E9)^{2}*(F9)^2+(K8-E12)^2*(F12)^2+(K8-E13)^{2}*F13)/K8^2</f>
+        <v>2.3190246133124807E-2</v>
+      </c>
+      <c r="M6">
         <f>(E16-E17-E20+E21)/(E16+E17+E20+E21)</f>
         <v>0.45280122793553335</v>
       </c>
-      <c r="K6">
-        <f>-F6+G6+H6+I6</f>
+      <c r="N6" cm="1">
+        <f t="array" ref="N6">SQRT((M8-E16)^{2}*(F16)^2+(M8-E17)^{2}*(F17)^2+(M8-E20)^2*(F20)^2+(M8-E21)^{2}*F21)/M8^2</f>
+        <v>3.0521957048903592E-2</v>
+      </c>
+      <c r="P6">
+        <f>-G6+I6+K6+M6</f>
         <v>2.5586322224802629</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
+      <c r="Q6">
+        <f>SQRT(H6^2+J6^2+L6^2+N6^2)</f>
+        <v>4.9781729732164492E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7">
         <v>0</v>
       </c>
@@ -615,8 +726,23 @@
       <c r="E7">
         <v>153.69999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="F7">
+        <v>11.9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8">
         <v>0</v>
       </c>
@@ -626,8 +752,27 @@
       <c r="E8">
         <v>193.9</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="F8">
+        <v>16.2</v>
+      </c>
+      <c r="G8">
+        <f>E6+E10+E7+E11</f>
+        <v>512.6</v>
+      </c>
+      <c r="I8">
+        <f>E14+E18+E15+E19</f>
+        <v>532.5</v>
+      </c>
+      <c r="K8">
+        <f>E8+E12+E9+E13</f>
+        <v>521.9</v>
+      </c>
+      <c r="M8">
+        <f>E16+E17+E20+E21</f>
+        <v>521.20000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9">
         <v>0</v>
       </c>
@@ -637,8 +782,11 @@
       <c r="E9">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="F9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10">
         <v>45</v>
       </c>
@@ -648,8 +796,11 @@
       <c r="E10">
         <v>245.1</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="F10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11">
         <v>45</v>
       </c>
@@ -659,8 +810,11 @@
       <c r="E11">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
+      <c r="F11">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12">
         <v>45</v>
       </c>
@@ -670,8 +824,11 @@
       <c r="E12">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="F12">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13">
         <v>45</v>
       </c>
@@ -681,8 +838,11 @@
       <c r="E13">
         <v>281</v>
       </c>
-    </row>
-    <row r="14" spans="2:11">
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14">
         <v>22.5</v>
       </c>
@@ -692,8 +852,11 @@
       <c r="E14">
         <v>259.3</v>
       </c>
-    </row>
-    <row r="15" spans="2:11">
+      <c r="F14">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15">
         <v>22.5</v>
       </c>
@@ -703,8 +866,11 @@
       <c r="E15">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="16" spans="2:11">
+      <c r="F15">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16">
         <v>22.5</v>
       </c>
@@ -714,8 +880,11 @@
       <c r="E16">
         <v>163.9</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>22.5</v>
       </c>
@@ -725,8 +894,11 @@
       <c r="E17">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18">
         <v>-22.5</v>
       </c>
@@ -736,8 +908,11 @@
       <c r="E18">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>-22.5</v>
       </c>
@@ -747,8 +922,11 @@
       <c r="E19">
         <v>201.3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>-22.5</v>
       </c>
@@ -758,8 +936,11 @@
       <c r="E20">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>-22.5</v>
       </c>
@@ -769,8 +950,11 @@
       <c r="E21">
         <v>214.7</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F21">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -778,7 +962,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="D24" t="s">
         <v>23</v>
       </c>
@@ -786,7 +970,7 @@
         <v>212.2</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6">
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -794,7 +978,7 @@
         <v>251.1</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:6">
       <c r="D26" t="s">
         <v>25</v>
       </c>
